--- a/Cat Defense 기획 정리.xlsx
+++ b/Cat Defense 기획 정리.xlsx
@@ -122,16 +122,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,10 +416,10 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:F4"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -429,106 +429,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -562,15 +562,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cat Defense 기획 정리.xlsx
+++ b/Cat Defense 기획 정리.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>시스템 결정 사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,7 +67,39 @@
 6.2 양고기
 6.3 소고기
 6.4 닭고기
-6.5 오리고기 등등…</t>
+6.5 오리고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1P의 플레이 순서
+7.1 선반에 있는 고기 중 알맞은 고기를 선택한다.
+7.2 도마에 고기가 올라오면 움직이는 바를 보고 적절한 크기로 자른다.
+7.3 자른 부분의 오른쪽이 2P에게 넘어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2P의 플레이 순서
+8.0 1P에게서 넘어온 고기를 받는다. (딱히 동작 없음)
+8.1 화살표를 움직여 적절한 고양이를 조준한다.
+8.2 쏜다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈에 관해서
+9.1 돈은 고기를 자를 때 자르는 크기에 비례해서 돈이 감소한다.
+9.2 3.2.2.1을 성공했을 경우 그에 따른 보상이 들어온다.
+9.3 웨이브가 끝나고 상점에서 돈을 지불해 업그레이드 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기의 크기에 관해서
+10.1 고양이가 원하는 고기의 크기는 대, 중, 소 3가지이다.
+10.2 항상 일정한 크기의 고기가 도마 위에 올라온다. (논의 필요)
+10.3 위에 대/중/소를 표시하는 바가 생긴다.
+10.4 어디를 잘라도 대/중/소 중 하나로 구분된다.
+  10.4.1 Perfect 판정으로 3.2.2.1을 성공했을 경우 정가의 130%를 받는다.
+  10.4.2 Good 판정으로 3.2.2.1을 성공했을 경우 정가를 받는다.
+  10.4.3 Bad 판정으로 3.2.2.1을 성공했을 경우 정가의 70%를 받는다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,13 +157,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -148,6 +180,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167283</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1186458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>591457</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>381503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1" r="-2188"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5420916" y="5115521"/>
+          <a:ext cx="5216439" cy="2921198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,130 +495,148 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7:F7"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10.625" customWidth="1"/>
+    <col min="2" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -561,7 +659,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -575,5 +675,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>